--- a/raw_data/20200818_saline/20200818_Sensor0_Test_84.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_84.xlsx
@@ -1,1958 +1,2374 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0ECCD-36A7-49B3-8C33-5C4187495451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>74702.971270</v>
+        <v>74702.971269999995</v>
       </c>
       <c r="B2" s="1">
-        <v>20.750825</v>
+        <v>20.750824999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>903.656000</v>
+        <v>903.65599999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-190.870000</v>
+        <v>-190.87</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>74713.413570</v>
+        <v>74713.413570000004</v>
       </c>
       <c r="G2" s="1">
         <v>20.753726</v>
       </c>
       <c r="H2" s="1">
-        <v>920.141000</v>
+        <v>920.14099999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.005000</v>
+        <v>-163.005</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>74723.877148</v>
       </c>
       <c r="L2" s="1">
-        <v>20.756633</v>
+        <v>20.756633000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.936000</v>
+        <v>942.93600000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.017000</v>
+        <v>-118.017</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>74734.680044</v>
+        <v>74734.680043999993</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.759633</v>
+        <v>20.759633000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>949.871000</v>
+        <v>949.87099999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>74745.271126</v>
+        <v>74745.271126000007</v>
       </c>
       <c r="V2" s="1">
-        <v>20.762575</v>
+        <v>20.762574999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>956.977000</v>
+        <v>956.97699999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.921500</v>
+        <v>-89.921499999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>74755.518433</v>
+        <v>74755.518433000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.765422</v>
+        <v>20.765422000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.517000</v>
+        <v>964.51700000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.551400</v>
+        <v>-80.551400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>74765.708243</v>
+        <v>74765.708243000001</v>
       </c>
       <c r="AF2" s="1">
         <v>20.768252</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.623000</v>
+        <v>969.62300000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.968800</v>
+        <v>-79.968800000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>74775.852918</v>
+        <v>74775.852918000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.771070</v>
+        <v>20.771070000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.693000</v>
+        <v>977.69299999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.562900</v>
+        <v>-87.562899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>74786.099769</v>
+        <v>74786.099768999993</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.773917</v>
+        <v>20.773917000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.907000</v>
+        <v>986.90700000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.261000</v>
+        <v>-102.261</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>74797.413054</v>
+        <v>74797.413054000004</v>
       </c>
       <c r="AU2" s="1">
-        <v>20.777059</v>
+        <v>20.777059000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.237000</v>
+        <v>998.23699999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.603000</v>
+        <v>-123.60299999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>74808.596997</v>
+        <v>74808.596997000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.780166</v>
+        <v>20.780166000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.220000</v>
+        <v>-142.22</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>74819.578236</v>
+        <v>74819.578236000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.783216</v>
+        <v>20.783215999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>74831.004572</v>
+        <v>74831.004572000005</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.786390</v>
+        <v>20.786390000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.475000</v>
+        <v>-361.47500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>74842.415571</v>
+        <v>74842.415571000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.789560</v>
+        <v>20.789560000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-569.066000</v>
+        <v>-569.06600000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>74853.586927</v>
+        <v>74853.586926999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.792663</v>
+        <v>20.792663000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.260000</v>
+        <v>1411.26</v>
       </c>
       <c r="BV2" s="1">
-        <v>-789.833000</v>
+        <v>-789.83299999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>74864.984016</v>
+        <v>74864.984016000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.795829</v>
+        <v>20.795829000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.250000</v>
+        <v>1571.25</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1020.450000</v>
+        <v>-1020.45</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>74876.233265</v>
+        <v>74876.233265000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.798954</v>
+        <v>20.798953999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1972.350000</v>
+        <v>1972.35</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1559.040000</v>
+        <v>-1559.04</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>74703.376998</v>
+        <v>74703.376998000007</v>
       </c>
       <c r="B3" s="1">
-        <v>20.750938</v>
+        <v>20.750938000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>903.638000</v>
+        <v>903.63800000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-190.950000</v>
+        <v>-190.95</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>74714.102488</v>
+        <v>74714.102488000004</v>
       </c>
       <c r="G3" s="1">
-        <v>20.753917</v>
+        <v>20.753917000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>920.285000</v>
+        <v>920.28499999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.830000</v>
+        <v>-162.83000000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>74724.583481</v>
+        <v>74724.583480999994</v>
       </c>
       <c r="L3" s="1">
         <v>20.756829</v>
       </c>
       <c r="M3" s="1">
-        <v>943.096000</v>
+        <v>943.096</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.166000</v>
+        <v>-118.166</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>74735.100621</v>
+        <v>74735.100621000005</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.759750</v>
+        <v>20.75975</v>
       </c>
       <c r="R3" s="1">
-        <v>949.871000</v>
+        <v>949.87099999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>74745.683757</v>
+        <v>74745.683757000006</v>
       </c>
       <c r="V3" s="1">
-        <v>20.762690</v>
+        <v>20.762689999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>956.795000</v>
+        <v>956.79499999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.011600</v>
+        <v>-90.011600000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>74755.866128</v>
+        <v>74755.866127999994</v>
       </c>
       <c r="AA3" s="1">
         <v>20.765518</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.523000</v>
+        <v>964.52300000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.564600</v>
+        <v>-80.564599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>74766.086194</v>
+        <v>74766.086194000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.768357</v>
+        <v>20.768357000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.614000</v>
+        <v>969.61400000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.049600</v>
+        <v>-80.049599999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>74776.238837</v>
+        <v>74776.238836999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.771177</v>
+        <v>20.771177000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.728000</v>
+        <v>977.72799999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.550300</v>
+        <v>-87.550299999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>74786.527352</v>
+        <v>74786.527352000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.774035</v>
+        <v>20.774035000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.891000</v>
+        <v>986.89099999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>74797.867352</v>
+        <v>74797.867352000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.777185</v>
+        <v>20.777184999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.228000</v>
+        <v>998.22799999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.602000</v>
+        <v>-123.602</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>74809.007995</v>
+        <v>74809.007995000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.780280</v>
+        <v>20.780280000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.208000</v>
+        <v>-142.208</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>74819.938836</v>
+        <v>74819.938836000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.783316</v>
+        <v>20.783315999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>74831.384038</v>
+        <v>74831.384038000004</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.786496</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.505000</v>
+        <v>-361.505</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>74842.843092</v>
+        <v>74842.843091999996</v>
       </c>
       <c r="BO3" s="1">
         <v>20.789679</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-569.098000</v>
+        <v>-569.09799999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>74854.039806</v>
+        <v>74854.039806000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.792789</v>
+        <v>20.792788999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.300000</v>
+        <v>1411.3</v>
       </c>
       <c r="BV3" s="1">
-        <v>-789.867000</v>
+        <v>-789.86699999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>74865.453247</v>
+        <v>74865.453246999998</v>
       </c>
       <c r="BY3" s="1">
         <v>20.795959</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.300000</v>
+        <v>1571.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1020.240000</v>
+        <v>-1020.24</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>74876.799200</v>
+        <v>74876.799199999994</v>
       </c>
       <c r="CD3" s="1">
         <v>20.799111</v>
       </c>
       <c r="CE3" s="1">
-        <v>1972.440000</v>
+        <v>1972.44</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1558.190000</v>
+        <v>-1558.19</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>74704.031749</v>
+        <v>74704.031749000002</v>
       </c>
       <c r="B4" s="1">
-        <v>20.751120</v>
+        <v>20.75112</v>
       </c>
       <c r="C4" s="1">
-        <v>903.716000</v>
+        <v>903.71600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-191.082000</v>
+        <v>-191.08199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>74714.476471</v>
+        <v>74714.476471000002</v>
       </c>
       <c r="G4" s="1">
-        <v>20.754021</v>
+        <v>20.754021000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>920.230000</v>
+        <v>920.23</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.219000</v>
+        <v>-163.21899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>74724.945529</v>
+        <v>74724.945529000004</v>
       </c>
       <c r="L4" s="1">
         <v>20.756929</v>
       </c>
       <c r="M4" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.270000</v>
+        <v>-118.27</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>74735.451787</v>
+        <v>74735.451786999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.759848</v>
+        <v>20.759848000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>949.911000</v>
+        <v>949.91099999999994</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.327000</v>
+        <v>-103.327</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>74746.028973</v>
+        <v>74746.028972999993</v>
       </c>
       <c r="V4" s="1">
-        <v>20.762786</v>
+        <v>20.762785999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>956.767000</v>
+        <v>956.76700000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.012500</v>
+        <v>-90.012500000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>74756.214815</v>
+        <v>74756.214814999999</v>
       </c>
       <c r="AA4" s="1">
         <v>20.765615</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.423000</v>
+        <v>964.423</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.484000</v>
+        <v>-80.483999999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>74766.521185</v>
+        <v>74766.521185000005</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.768478</v>
+        <v>20.768478000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.634000</v>
+        <v>969.63400000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.007500</v>
+        <v>-80.007499999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>74776.679748</v>
+        <v>74776.679747999995</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.771300</v>
+        <v>20.7713</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.699000</v>
+        <v>977.69899999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.589100</v>
+        <v>-87.589100000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>74786.856663</v>
+        <v>74786.856662999999</v>
       </c>
       <c r="AP4" s="1">
         <v>20.774127</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.890000</v>
+        <v>986.89</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.282000</v>
+        <v>-102.282</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>74798.249802</v>
+        <v>74798.249802000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.777292</v>
+        <v>20.777291999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.260000</v>
+        <v>998.26</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.599000</v>
+        <v>-123.599</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>74809.366602</v>
+        <v>74809.366601999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.780380</v>
+        <v>20.780380000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.205000</v>
+        <v>-142.20500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>74820.299915</v>
+        <v>74820.299914999996</v>
       </c>
       <c r="BE4" s="1">
         <v>20.783417</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>74832.133995</v>
+        <v>74832.133994999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>20.786704</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.504000</v>
+        <v>-361.50400000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>74843.268157</v>
+        <v>74843.268156999999</v>
       </c>
       <c r="BO4" s="1">
         <v>20.789797</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-569.056000</v>
+        <v>-569.05600000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>74854.468318</v>
+        <v>74854.468317999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.792908</v>
+        <v>20.792908000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.260000</v>
+        <v>1411.26</v>
       </c>
       <c r="BV4" s="1">
-        <v>-789.872000</v>
+        <v>-789.87199999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>74865.911551</v>
+        <v>74865.911550999997</v>
       </c>
       <c r="BY4" s="1">
         <v>20.796087</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.170000</v>
+        <v>-1020.17</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>74877.320495</v>
+        <v>74877.320495000007</v>
       </c>
       <c r="CD4" s="1">
         <v>20.799256</v>
       </c>
       <c r="CE4" s="1">
-        <v>1973.070000</v>
+        <v>1973.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1559.430000</v>
+        <v>-1559.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>74704.397796</v>
+        <v>74704.397796000005</v>
       </c>
       <c r="B5" s="1">
-        <v>20.751222</v>
+        <v>20.751221999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>903.632000</v>
+        <v>903.63199999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-190.888000</v>
+        <v>-190.88800000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>74714.819703</v>
+        <v>74714.819703000001</v>
       </c>
       <c r="G5" s="1">
-        <v>20.754117</v>
+        <v>20.754117000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.868000</v>
+        <v>919.86800000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.408000</v>
+        <v>-162.40799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>74725.293722</v>
+        <v>74725.293722000002</v>
       </c>
       <c r="L5" s="1">
         <v>20.757026</v>
       </c>
       <c r="M5" s="1">
-        <v>942.983000</v>
+        <v>942.98299999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.043000</v>
+        <v>-118.04300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>74735.797995</v>
+        <v>74735.797995000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.759944</v>
+        <v>20.759944000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.920000</v>
+        <v>949.92</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.359000</v>
+        <v>-103.35899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>74746.460531</v>
+        <v>74746.460531000004</v>
       </c>
       <c r="V5" s="1">
-        <v>20.762906</v>
+        <v>20.762906000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>956.875000</v>
+        <v>956.875</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.045600</v>
+        <v>-90.045599999999993</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>74756.644880</v>
+        <v>74756.644880000007</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.765735</v>
+        <v>20.765734999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.492000</v>
+        <v>964.49199999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.528500</v>
+        <v>-80.528499999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>74766.809361</v>
+        <v>74766.809361000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.768558</v>
+        <v>20.768557999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.631000</v>
+        <v>969.63099999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.036300</v>
+        <v>-80.036299999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74776.957508</v>
+        <v>74776.957508000007</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.771377</v>
+        <v>20.771377000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.693000</v>
+        <v>977.69299999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.560600</v>
+        <v>-87.560599999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>74787.219238</v>
+        <v>74787.219238000005</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.774228</v>
+        <v>20.774228000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.898000</v>
+        <v>986.89800000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>74798.611879</v>
+        <v>74798.611879000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.777392</v>
+        <v>20.777391999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.245000</v>
+        <v>998.245</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.609000</v>
+        <v>-123.60899999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>74809.726201</v>
+        <v>74809.726200999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.780480</v>
+        <v>20.780480000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.196000</v>
+        <v>-142.196</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>74821.029530</v>
+        <v>74821.02953</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.783619</v>
+        <v>20.783619000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.539000</v>
+        <v>-226.53899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>74832.507451</v>
+        <v>74832.507450999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.786808</v>
+        <v>20.786808000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.504000</v>
+        <v>-361.50400000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>74843.648588</v>
+        <v>74843.648587999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.789902</v>
+        <v>20.789902000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-569.076000</v>
+        <v>-569.07600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>74854.880493</v>
+        <v>74854.880493000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.793022</v>
+        <v>20.793022000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.280000</v>
+        <v>1411.28</v>
       </c>
       <c r="BV5" s="1">
-        <v>-789.846000</v>
+        <v>-789.846</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>74866.676847</v>
+        <v>74866.676846999995</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.796299</v>
+        <v>20.796299000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.150000</v>
+        <v>1571.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1020.130000</v>
+        <v>-1020.13</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>74878.199406</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.799500</v>
+        <v>20.799499999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.460000</v>
+        <v>1974.46</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1558.700000</v>
+        <v>-1558.7</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>74704.741988</v>
+        <v>74704.741987999994</v>
       </c>
       <c r="B6" s="1">
         <v>20.751317</v>
       </c>
       <c r="C6" s="1">
-        <v>903.595000</v>
+        <v>903.59500000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-190.834000</v>
+        <v>-190.834</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>74715.168390</v>
+        <v>74715.168390000006</v>
       </c>
       <c r="G6" s="1">
         <v>20.754213</v>
       </c>
       <c r="H6" s="1">
-        <v>920.295000</v>
+        <v>920.29499999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.801000</v>
+        <v>-162.80099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>74725.641416</v>
+        <v>74725.641415999999</v>
       </c>
       <c r="L6" s="1">
         <v>20.757123</v>
       </c>
       <c r="M6" s="1">
-        <v>942.974000</v>
+        <v>942.97400000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.221000</v>
+        <v>-118.221</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>74736.223594</v>
+        <v>74736.223593999996</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.760062</v>
+        <v>20.760062000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>949.912000</v>
+        <v>949.91200000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.378000</v>
+        <v>-103.378</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>74746.735918</v>
+        <v>74746.735918000006</v>
       </c>
       <c r="V6" s="1">
-        <v>20.762982</v>
+        <v>20.762982000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.738000</v>
+        <v>956.73800000000006</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.950800</v>
+        <v>-89.950800000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>74756.915198</v>
+        <v>74756.915198000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.765810</v>
+        <v>20.765809999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.465000</v>
+        <v>964.46500000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.453100</v>
+        <v>-80.453100000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>74767.153618</v>
+        <v>74767.153617999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.768654</v>
+        <v>20.768654000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.650000</v>
+        <v>969.65</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.006500</v>
+        <v>-80.006500000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>74777.306203</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.771474</v>
+        <v>20.771474000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.698000</v>
+        <v>977.69799999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.570400</v>
+        <v>-87.570400000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>74787.578374</v>
+        <v>74787.578374000004</v>
       </c>
       <c r="AP6" s="1">
         <v>20.774327</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.888000</v>
+        <v>986.88800000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.261000</v>
+        <v>-102.261</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>74799.344966</v>
+        <v>74799.344966000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.777596</v>
+        <v>20.777595999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.230000</v>
+        <v>998.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.586000</v>
+        <v>-123.586</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>74810.444407</v>
+        <v>74810.444407000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.780679</v>
+        <v>20.780678999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.214000</v>
+        <v>-142.214</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>74821.404506</v>
+        <v>74821.404506000006</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.783723</v>
+        <v>20.783722999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.558000</v>
+        <v>-226.55799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>74832.881468</v>
+        <v>74832.881468000007</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.786912</v>
+        <v>20.786912000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.479000</v>
+        <v>-361.47899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>74844.074652</v>
+        <v>74844.074651999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.790021</v>
+        <v>20.790020999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.030000</v>
+        <v>1264.03</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-569.097000</v>
+        <v>-569.09699999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>74855.602172</v>
+        <v>74855.602171999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.793223</v>
+        <v>20.793223000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.200000</v>
+        <v>1411.2</v>
       </c>
       <c r="BV6" s="1">
-        <v>-789.864000</v>
+        <v>-789.86400000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>74866.805838</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.796335</v>
+        <v>20.796334999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.270000</v>
+        <v>1571.27</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1020.260000</v>
+        <v>-1020.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>74878.357392</v>
+        <v>74878.357392000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.799544</v>
+        <v>20.799544000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1973.040000</v>
+        <v>1973.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1557.750000</v>
+        <v>-1557.75</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>74705.085256</v>
+        <v>74705.085256000006</v>
       </c>
       <c r="B7" s="1">
-        <v>20.751413</v>
+        <v>20.751412999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>903.622000</v>
+        <v>903.62199999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-190.911000</v>
+        <v>-190.911</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>74715.599941</v>
+        <v>74715.599940999993</v>
       </c>
       <c r="G7" s="1">
-        <v>20.754333</v>
+        <v>20.754332999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>920.145000</v>
+        <v>920.14499999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.803000</v>
+        <v>-162.803</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>74726.069959</v>
       </c>
       <c r="L7" s="1">
-        <v>20.757242</v>
+        <v>20.757242000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>942.841000</v>
+        <v>942.84100000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.310000</v>
+        <v>-118.31</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>74736.501856</v>
+        <v>74736.501856000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.760139</v>
+        <v>20.760138999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>949.908000</v>
+        <v>949.90800000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.353000</v>
+        <v>-103.35299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>74747.077052</v>
+        <v>74747.077051999993</v>
       </c>
       <c r="V7" s="1">
-        <v>20.763077</v>
+        <v>20.763076999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>956.811000</v>
+        <v>956.81100000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.039700</v>
+        <v>-90.039699999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>74757.258894</v>
+        <v>74757.258893999999</v>
       </c>
       <c r="AA7" s="1">
         <v>20.765905</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.445000</v>
+        <v>964.44500000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.528200</v>
+        <v>-80.528199999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>74767.496322</v>
+        <v>74767.496322000006</v>
       </c>
       <c r="AF7" s="1">
         <v>20.768749</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.645000</v>
+        <v>969.64499999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.004500</v>
+        <v>-80.004499999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74777.654387</v>
+        <v>74777.654387000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.771571</v>
+        <v>20.771571000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.694000</v>
+        <v>977.69399999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.561100</v>
+        <v>-87.561099999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>74788.297552</v>
+        <v>74788.297552000004</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.774527</v>
+        <v>20.774526999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.892000</v>
+        <v>986.89200000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.263000</v>
+        <v>-102.26300000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>74799.733798</v>
+        <v>74799.733798000001</v>
       </c>
       <c r="AU7" s="1">
         <v>20.777704</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.231000</v>
+        <v>998.23099999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.598000</v>
+        <v>-123.598</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>74810.801528</v>
+        <v>74810.801527999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.780778</v>
+        <v>20.780778000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.218000</v>
+        <v>-142.21799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>74821.768073</v>
+        <v>74821.768072999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.783824</v>
+        <v>20.783823999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.060000</v>
+        <v>1053.06</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.527000</v>
+        <v>-226.52699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>74833.569385</v>
+        <v>74833.569384999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.787103</v>
+        <v>20.787102999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.620000</v>
+        <v>1132.6199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.523000</v>
+        <v>-361.52300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>74844.787935</v>
@@ -1961,814 +2377,814 @@
         <v>20.790219</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.080000</v>
+        <v>1264.08</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-569.103000</v>
+        <v>-569.10299999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>74855.712284</v>
+        <v>74855.712283999994</v>
       </c>
       <c r="BT7" s="1">
         <v>20.793253</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.210000</v>
+        <v>1411.21</v>
       </c>
       <c r="BV7" s="1">
-        <v>-789.836000</v>
+        <v>-789.83600000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>74867.226909</v>
+        <v>74867.226909000005</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.796452</v>
+        <v>20.796451999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.220000</v>
+        <v>1571.22</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1020.470000</v>
+        <v>-1020.47</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>74878.871487</v>
+        <v>74878.871486999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.799687</v>
+        <v>20.799686999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1973.040000</v>
+        <v>1973.04</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1557.600000</v>
+        <v>-1557.6</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>74705.509796</v>
+        <v>74705.509795999998</v>
       </c>
       <c r="B8" s="1">
-        <v>20.751530</v>
+        <v>20.751529999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>903.678000</v>
+        <v>903.678</v>
       </c>
       <c r="D8" s="1">
-        <v>-190.917000</v>
+        <v>-190.917</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>74715.871221</v>
+        <v>74715.871220999994</v>
       </c>
       <c r="G8" s="1">
-        <v>20.754409</v>
+        <v>20.754408999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>919.500000</v>
+        <v>919.5</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.060000</v>
+        <v>-163.06</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>74726.351192</v>
+        <v>74726.351192000002</v>
       </c>
       <c r="L8" s="1">
-        <v>20.757320</v>
+        <v>20.75732</v>
       </c>
       <c r="M8" s="1">
-        <v>942.894000</v>
+        <v>942.89400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.179000</v>
+        <v>-118.179</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>74736.848522</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.760236</v>
+        <v>20.760235999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>949.896000</v>
+        <v>949.89599999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.427000</v>
+        <v>-103.42700000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>74747.422266</v>
+        <v>74747.422265999994</v>
       </c>
       <c r="V8" s="1">
-        <v>20.763173</v>
+        <v>20.763172999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>956.817000</v>
+        <v>956.81700000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.993100</v>
+        <v>-89.993099999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>74757.610558</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.766003</v>
+        <v>20.766003000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.499000</v>
+        <v>964.49900000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.568900</v>
+        <v>-80.568899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>74768.180799</v>
+        <v>74768.180798999994</v>
       </c>
       <c r="AF8" s="1">
         <v>20.768939</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.638000</v>
+        <v>969.63800000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.996100</v>
+        <v>-79.996099999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>74778.352754</v>
+        <v>74778.352754000007</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.771765</v>
+        <v>20.771764999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.695000</v>
+        <v>977.69500000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.568600</v>
+        <v>-87.568600000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>74788.659156</v>
+        <v>74788.659155999994</v>
       </c>
       <c r="AP8" s="1">
         <v>20.774628</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.887000</v>
+        <v>986.88699999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>74800.100837</v>
+        <v>74800.100837000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.777806</v>
+        <v>20.777806000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.248000</v>
+        <v>998.24800000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.586000</v>
+        <v>-123.586</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>74811.160631</v>
+        <v>74811.160631000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.780878</v>
+        <v>20.780878000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.209000</v>
+        <v>-142.209</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>74822.438169</v>
+        <v>74822.438169000001</v>
       </c>
       <c r="BE8" s="1">
         <v>20.784011</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.527000</v>
+        <v>-226.52699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>74834.006856</v>
+        <v>74834.006856000007</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.787224</v>
+        <v>20.787223999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.550000</v>
+        <v>-361.55</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>74844.976378</v>
+        <v>74844.976378000007</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.790271</v>
+        <v>20.790271000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.080000</v>
+        <v>1264.08</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-569.078000</v>
+        <v>-569.07799999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>74856.148763</v>
+        <v>74856.148763000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.793375</v>
+        <v>20.793375000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.190000</v>
+        <v>1411.19</v>
       </c>
       <c r="BV8" s="1">
-        <v>-789.844000</v>
+        <v>-789.84400000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>74867.655490</v>
+        <v>74867.655490000005</v>
       </c>
       <c r="BY8" s="1">
         <v>20.796571</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.390000</v>
+        <v>1571.39</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1020.350000</v>
+        <v>-1020.35</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>74879.422044</v>
+        <v>74879.422044000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.799839</v>
+        <v>20.799838999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1974.340000</v>
+        <v>1974.34</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1557.990000</v>
+        <v>-1557.99</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>74705.785106</v>
+        <v>74705.785105999996</v>
       </c>
       <c r="B9" s="1">
         <v>20.751607</v>
       </c>
       <c r="C9" s="1">
-        <v>903.605000</v>
+        <v>903.60500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-190.965000</v>
+        <v>-190.965</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>74716.213461</v>
+        <v>74716.213461000007</v>
       </c>
       <c r="G9" s="1">
-        <v>20.754504</v>
+        <v>20.754504000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.958000</v>
+        <v>919.95799999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.963000</v>
+        <v>-162.96299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>74726.696902</v>
+        <v>74726.696901999996</v>
       </c>
       <c r="L9" s="1">
-        <v>20.757416</v>
+        <v>20.757415999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.752000</v>
+        <v>942.75199999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.228000</v>
+        <v>-118.22799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>74737.194264</v>
+        <v>74737.194264000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.760332</v>
+        <v>20.760331999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>949.882000</v>
+        <v>949.88199999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.364000</v>
+        <v>-103.364</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>74748.110223</v>
+        <v>74748.110222999996</v>
       </c>
       <c r="V9" s="1">
-        <v>20.763364</v>
+        <v>20.763363999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>956.746000</v>
+        <v>956.74599999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.069800</v>
+        <v>-90.069800000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>74758.305452</v>
+        <v>74758.305452000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.766196</v>
+        <v>20.766196000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.457000</v>
+        <v>964.45699999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.564400</v>
+        <v>-80.564400000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>74768.523041</v>
+        <v>74768.523040999993</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.769034</v>
+        <v>20.769034000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.600000</v>
+        <v>969.6</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.052600</v>
+        <v>-80.052599999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>74778.700946</v>
+        <v>74778.700945999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.771861</v>
+        <v>20.771861000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.679000</v>
+        <v>977.67899999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.540500</v>
+        <v>-87.540499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>74789.019716</v>
+        <v>74789.019715999995</v>
       </c>
       <c r="AP9" s="1">
         <v>20.774728</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.898000</v>
+        <v>986.89800000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>74800.778406</v>
+        <v>74800.778405999998</v>
       </c>
       <c r="AU9" s="1">
         <v>20.777994</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.233000</v>
+        <v>998.23299999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.603000</v>
+        <v>-123.60299999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>74811.866476</v>
+        <v>74811.866475999996</v>
       </c>
       <c r="AZ9" s="1">
         <v>20.781074</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.222000</v>
+        <v>-142.22200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>74822.883079</v>
+        <v>74822.883079000007</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.784134</v>
+        <v>20.784134000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.536000</v>
+        <v>-226.536</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>74834.386792</v>
+        <v>74834.386792000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.787330</v>
+        <v>20.787330000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.610000</v>
+        <v>1132.6099999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.504000</v>
+        <v>-361.50400000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>74845.312665</v>
+        <v>74845.312665000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.790365</v>
+        <v>20.790365000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.030000</v>
+        <v>1264.03</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-569.098000</v>
+        <v>-569.09799999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>74856.567388</v>
+        <v>74856.567387999996</v>
       </c>
       <c r="BT9" s="1">
         <v>20.793491</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.200000</v>
+        <v>1411.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-789.849000</v>
+        <v>-789.84900000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>74868.083499</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.796690</v>
+        <v>20.796690000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.160000</v>
+        <v>1571.16</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1020.270000</v>
+        <v>-1020.27</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>74879.952268</v>
+        <v>74879.952267999994</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.799987</v>
+        <v>20.799987000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1972.590000</v>
+        <v>1972.59</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1557.960000</v>
+        <v>-1557.96</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>74706.128801</v>
+        <v>74706.128800999999</v>
       </c>
       <c r="B10" s="1">
-        <v>20.751702</v>
+        <v>20.751702000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>903.529000</v>
+        <v>903.529</v>
       </c>
       <c r="D10" s="1">
-        <v>-190.999000</v>
+        <v>-190.999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>74716.556229</v>
+        <v>74716.556228999994</v>
       </c>
       <c r="G10" s="1">
-        <v>20.754599</v>
+        <v>20.754598999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>920.029000</v>
+        <v>920.029</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.708000</v>
+        <v>-162.708</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>74727.043606</v>
+        <v>74727.043606000007</v>
       </c>
       <c r="L10" s="1">
-        <v>20.757512</v>
+        <v>20.757511999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>942.945000</v>
+        <v>942.94500000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.290000</v>
+        <v>-118.29</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>74737.893133</v>
+        <v>74737.893133000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.760526</v>
+        <v>20.760525999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>949.908000</v>
+        <v>949.90800000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>74748.452959</v>
+        <v>74748.452959000002</v>
       </c>
       <c r="V10" s="1">
-        <v>20.763459</v>
+        <v>20.763459000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>956.796000</v>
+        <v>956.79600000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.014900</v>
+        <v>-90.014899999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>74758.656621</v>
+        <v>74758.656621000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.766294</v>
+        <v>20.766293999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.400000</v>
+        <v>964.4</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.609500</v>
+        <v>-80.609499999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>74768.868268</v>
+        <v>74768.868268000006</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.769130</v>
+        <v>20.769130000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.643000</v>
+        <v>969.64300000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.012900</v>
+        <v>-80.012900000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>74779.048147</v>
+        <v>74779.048146999994</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.771958</v>
+        <v>20.771958000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.702000</v>
+        <v>977.702</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.553500</v>
+        <v>-87.5535</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>74789.694771</v>
+        <v>74789.694770999995</v>
       </c>
       <c r="AP10" s="1">
         <v>20.774915</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.914000</v>
+        <v>986.91399999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>74801.225803</v>
+        <v>74801.225802999994</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.778118</v>
+        <v>20.778117999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.239000</v>
+        <v>998.23900000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.594000</v>
+        <v>-123.59399999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>74812.238933</v>
+        <v>74812.238933000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>20.781177</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.205000</v>
+        <v>-142.20500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>74823.248135</v>
+        <v>74823.248135000002</v>
       </c>
       <c r="BE10" s="1">
         <v>20.784236</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.530000</v>
+        <v>-226.53</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>74834.763289</v>
+        <v>74834.763288999995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>20.787434</v>
+        <v>20.787434000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.610000</v>
+        <v>1132.6099999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.511000</v>
+        <v>-361.51100000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>74845.734761</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.790482</v>
+        <v>20.790482000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.060000</v>
+        <v>1264.06</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-569.105000</v>
+        <v>-569.10500000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>74856.998442</v>
+        <v>74856.998441999996</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.793611</v>
+        <v>20.793610999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1411.170000</v>
+        <v>1411.17</v>
       </c>
       <c r="BV10" s="1">
-        <v>-789.841000</v>
+        <v>-789.84100000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>74868.521995</v>
+        <v>74868.521995000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.796812</v>
+        <v>20.796811999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.130000</v>
+        <v>1571.13</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1020.300000</v>
+        <v>-1020.3</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>74880.470619</v>
@@ -2777,1572 +3193,1572 @@
         <v>20.800131</v>
       </c>
       <c r="CE10" s="1">
-        <v>1972.960000</v>
+        <v>1972.96</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1559.530000</v>
+        <v>-1559.53</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>74706.469057</v>
+        <v>74706.469056999995</v>
       </c>
       <c r="B11" s="1">
         <v>20.751797</v>
       </c>
       <c r="C11" s="1">
-        <v>903.643000</v>
+        <v>903.64300000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-191.051000</v>
+        <v>-191.05099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>74717.243650</v>
+        <v>74717.243650000004</v>
       </c>
       <c r="G11" s="1">
-        <v>20.754790</v>
+        <v>20.75479</v>
       </c>
       <c r="H11" s="1">
-        <v>919.891000</v>
+        <v>919.89099999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.033000</v>
+        <v>-163.03299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>74727.737509</v>
+        <v>74727.737508999999</v>
       </c>
       <c r="L11" s="1">
-        <v>20.757705</v>
+        <v>20.757705000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>942.985000</v>
+        <v>942.98500000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.300000</v>
+        <v>-118.3</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>74738.241288</v>
+        <v>74738.241288000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.760623</v>
+        <v>20.760622999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>949.936000</v>
+        <v>949.93600000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.344000</v>
+        <v>-103.34399999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>74748.795657</v>
+        <v>74748.795656999995</v>
       </c>
       <c r="V11" s="1">
-        <v>20.763554</v>
+        <v>20.763553999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>956.872000</v>
+        <v>956.87199999999996</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.010400</v>
+        <v>-90.010400000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>74759.007292</v>
+        <v>74759.007291999995</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.766391</v>
+        <v>20.766390999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.555000</v>
+        <v>964.55499999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.559400</v>
+        <v>-80.559399999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>74769.533390</v>
+        <v>74769.533389999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.769315</v>
+        <v>20.769314999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.625000</v>
+        <v>969.625</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.993600</v>
+        <v>-79.993600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>74779.749842</v>
+        <v>74779.749842000005</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.772153</v>
+        <v>20.772152999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.728000</v>
+        <v>977.72799999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.554100</v>
+        <v>-87.554100000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>74790.131905</v>
+        <v>74790.131905000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.775037</v>
+        <v>20.775037000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.887000</v>
+        <v>986.88699999999994</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>74801.591811</v>
+        <v>74801.591811000006</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.778220</v>
+        <v>20.778220000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.240000</v>
+        <v>998.24</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.608000</v>
+        <v>-123.608</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>74812.597542</v>
+        <v>74812.597542000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.781277</v>
+        <v>20.781276999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.206000</v>
+        <v>-142.20599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>74823.608263</v>
+        <v>74823.608263000002</v>
       </c>
       <c r="BE11" s="1">
         <v>20.784336</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.551000</v>
+        <v>-226.55099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>74835.190311</v>
+        <v>74835.190310999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.787553</v>
+        <v>20.787552999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.610000</v>
+        <v>1132.6099999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.531000</v>
+        <v>-361.53100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>74846.136024</v>
+        <v>74846.136024000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.790593</v>
+        <v>20.790593000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.070000</v>
+        <v>1264.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-569.102000</v>
+        <v>-569.10199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>74857.397193</v>
+        <v>74857.397192999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.793721</v>
+        <v>20.793721000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.150000</v>
+        <v>1411.15</v>
       </c>
       <c r="BV11" s="1">
-        <v>-789.783000</v>
+        <v>-789.78300000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>74868.939626</v>
+        <v>74868.939626000007</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.796928</v>
+        <v>20.796928000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.100000</v>
+        <v>1571.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1020.350000</v>
+        <v>-1020.35</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>74880.988906</v>
+        <v>74880.988905999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.800275</v>
+        <v>20.800274999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1974.600000</v>
+        <v>1974.6</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1558.850000</v>
+        <v>-1558.85</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>74707.150064</v>
+        <v>74707.150064000001</v>
       </c>
       <c r="B12" s="1">
-        <v>20.751986</v>
+        <v>20.751985999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>903.659000</v>
+        <v>903.65899999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-190.892000</v>
+        <v>-190.892</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>74717.593330</v>
+        <v>74717.593330000003</v>
       </c>
       <c r="G12" s="1">
         <v>20.754887</v>
       </c>
       <c r="H12" s="1">
-        <v>920.226000</v>
+        <v>920.226</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.978000</v>
+        <v>-162.97800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>74728.085741</v>
+        <v>74728.085741000003</v>
       </c>
       <c r="L12" s="1">
-        <v>20.757802</v>
+        <v>20.757802000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>943.030000</v>
+        <v>943.03</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.179000</v>
+        <v>-118.179</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>74738.589478</v>
+        <v>74738.589477999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.760719</v>
+        <v>20.760719000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>949.946000</v>
+        <v>949.94600000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>74749.446408</v>
+        <v>74749.446408000003</v>
       </c>
       <c r="V12" s="1">
         <v>20.763735</v>
       </c>
       <c r="W12" s="1">
-        <v>956.877000</v>
+        <v>956.87699999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.963100</v>
+        <v>-89.963099999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>74759.668987</v>
+        <v>74759.668986999997</v>
       </c>
       <c r="AA12" s="1">
         <v>20.766575</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.495000</v>
+        <v>964.495</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.504200</v>
+        <v>-80.504199999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>74769.906381</v>
+        <v>74769.906380999993</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.769418</v>
+        <v>20.769418000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.584000</v>
+        <v>969.58399999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.032400</v>
+        <v>-80.032399999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>74780.095695</v>
+        <v>74780.095694999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.772249</v>
+        <v>20.772248999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.684000</v>
+        <v>977.68399999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.554100</v>
+        <v>-87.554100000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>74790.492339</v>
+        <v>74790.492339000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.775137</v>
+        <v>20.775137000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.903000</v>
+        <v>986.90300000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>74801.955875</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.778321</v>
+        <v>20.778320999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.254000</v>
+        <v>998.25400000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.609000</v>
+        <v>-123.60899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>74813.022120</v>
+        <v>74813.022119999994</v>
       </c>
       <c r="AZ12" s="1">
         <v>20.781395</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.206000</v>
+        <v>-142.20599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>74824.027878</v>
+        <v>74824.027877999994</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.784452</v>
+        <v>20.784452000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.547000</v>
+        <v>-226.547</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>74835.538502</v>
+        <v>74835.538501999996</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.787650</v>
+        <v>20.787649999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.523000</v>
+        <v>-361.52300000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>74846.532839</v>
+        <v>74846.532839000007</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.790704</v>
+        <v>20.790704000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.060000</v>
+        <v>1264.06</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-569.075000</v>
+        <v>-569.07500000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>74857.835161</v>
+        <v>74857.835160999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.793843</v>
+        <v>20.793842999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.160000</v>
+        <v>1411.16</v>
       </c>
       <c r="BV12" s="1">
-        <v>-789.839000</v>
+        <v>-789.83900000000006</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>74869.364666</v>
+        <v>74869.364665999994</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.797046</v>
+        <v>20.797046000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.180000</v>
+        <v>1571.18</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1020.280000</v>
+        <v>-1020.28</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>74881.507728</v>
+        <v>74881.507727999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.800419</v>
+        <v>20.800419000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1974.520000</v>
+        <v>1974.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1558.970000</v>
+        <v>-1558.97</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>74707.493296</v>
+        <v>74707.493296000001</v>
       </c>
       <c r="B13" s="1">
         <v>20.752081</v>
       </c>
       <c r="C13" s="1">
-        <v>903.479000</v>
+        <v>903.47900000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-190.944000</v>
+        <v>-190.94399999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>74717.937059</v>
+        <v>74717.937059000004</v>
       </c>
       <c r="G13" s="1">
-        <v>20.754983</v>
+        <v>20.754982999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>920.098000</v>
+        <v>920.09799999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.504000</v>
+        <v>-162.50399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>74728.435920</v>
+        <v>74728.435920000004</v>
       </c>
       <c r="L13" s="1">
-        <v>20.757899</v>
+        <v>20.757898999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>942.893000</v>
+        <v>942.89300000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.204000</v>
+        <v>-118.20399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>74739.257094</v>
+        <v>74739.257094000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.760905</v>
+        <v>20.760905000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>949.906000</v>
+        <v>949.90599999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.368000</v>
+        <v>-103.36799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>74749.831801</v>
+        <v>74749.831800999993</v>
       </c>
       <c r="V13" s="1">
         <v>20.763842</v>
       </c>
       <c r="W13" s="1">
-        <v>956.773000</v>
+        <v>956.77300000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.899400</v>
+        <v>-89.8994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>74760.051385</v>
+        <v>74760.051384999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.766681</v>
+        <v>20.766680999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.475000</v>
+        <v>964.47500000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.530900</v>
+        <v>-80.530900000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>74770.252092</v>
+        <v>74770.252091999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.769514</v>
+        <v>20.769514000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.640000</v>
+        <v>969.64</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.995400</v>
+        <v>-79.995400000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>74780.440415</v>
+        <v>74780.440415000005</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.772345</v>
+        <v>20.772345000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.704000</v>
+        <v>977.70399999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.554400</v>
+        <v>-87.554400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>74790.850945</v>
+        <v>74790.850944999998</v>
       </c>
       <c r="AP13" s="1">
         <v>20.775236</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.913000</v>
+        <v>986.91300000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>74802.383426</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.778440</v>
+        <v>20.77844</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.238000</v>
+        <v>998.23800000000006</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.599000</v>
+        <v>-123.599</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>74813.313325</v>
+        <v>74813.313324999996</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.781476</v>
+        <v>20.781476000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.860000</v>
+        <v>1007.86</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.213000</v>
+        <v>-142.21299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>74824.330934</v>
+        <v>74824.330933999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.784536</v>
+        <v>20.784535999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.541000</v>
+        <v>-226.541</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>74835.911132</v>
+        <v>74835.911131999994</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.787753</v>
+        <v>20.787752999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.610000</v>
+        <v>1132.6099999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.493000</v>
+        <v>-361.49299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>74846.950456</v>
+        <v>74846.950456000006</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.790820</v>
+        <v>20.79082</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.090000</v>
+        <v>1264.0899999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-569.088000</v>
+        <v>-569.08799999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>74858.263222</v>
+        <v>74858.263221999994</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.793962</v>
+        <v>20.793962000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.130000</v>
+        <v>1411.13</v>
       </c>
       <c r="BV13" s="1">
-        <v>-789.811000</v>
+        <v>-789.81100000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>74869.814041</v>
+        <v>74869.814041000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.797171</v>
+        <v>20.797170999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.370000</v>
+        <v>1571.37</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1020.300000</v>
+        <v>-1020.3</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>74882.057785</v>
+        <v>74882.057784999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.800572</v>
+        <v>20.800571999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1973.180000</v>
+        <v>1973.18</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1559.640000</v>
+        <v>-1559.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>74707.835571</v>
+        <v>74707.835571000003</v>
       </c>
       <c r="B14" s="1">
         <v>20.752177</v>
       </c>
       <c r="C14" s="1">
-        <v>903.541000</v>
+        <v>903.54100000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-191.043000</v>
+        <v>-191.04300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>74718.601233</v>
+        <v>74718.601232999994</v>
       </c>
       <c r="G14" s="1">
         <v>20.755167</v>
       </c>
       <c r="H14" s="1">
-        <v>920.617000</v>
+        <v>920.61699999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.884000</v>
+        <v>-162.88399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>74729.146149</v>
+        <v>74729.146148999993</v>
       </c>
       <c r="L14" s="1">
-        <v>20.758096</v>
+        <v>20.758095999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>943.075000</v>
+        <v>943.07500000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.213000</v>
+        <v>-118.21299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>74739.636436</v>
+        <v>74739.636436000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.761010</v>
+        <v>20.761009999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>949.852000</v>
+        <v>949.85199999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.383000</v>
+        <v>-103.383</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>74750.179497</v>
+        <v>74750.179497000005</v>
       </c>
       <c r="V14" s="1">
-        <v>20.763939</v>
+        <v>20.763939000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>956.893000</v>
+        <v>956.89300000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.949500</v>
+        <v>-89.9495</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>74760.399561</v>
+        <v>74760.399560999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.766778</v>
+        <v>20.766777999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.445000</v>
+        <v>964.44500000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.549000</v>
+        <v>-80.549000000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>74770.600416</v>
+        <v>74770.600416000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.769611</v>
+        <v>20.769611000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.648000</v>
+        <v>969.64800000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.031100</v>
+        <v>-80.031099999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>74780.864495</v>
+        <v>74780.864495000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.772462</v>
+        <v>20.772462000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.711000</v>
+        <v>977.71100000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.557900</v>
+        <v>-87.557900000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>74791.274033</v>
+        <v>74791.274032999994</v>
       </c>
       <c r="AP14" s="1">
         <v>20.775354</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.904000</v>
+        <v>986.904</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.246000</v>
+        <v>-102.246</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>74802.688474</v>
+        <v>74802.688473999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.778525</v>
+        <v>20.778524999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.248000</v>
+        <v>998.24800000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.601000</v>
+        <v>-123.601</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>74813.675843</v>
+        <v>74813.675843000005</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.781577</v>
+        <v>20.781576999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.213000</v>
+        <v>-142.21299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>74824.690502</v>
+        <v>74824.690501999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.784636</v>
+        <v>20.784635999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.030000</v>
+        <v>1053.03</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.547000</v>
+        <v>-226.547</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>74836.288951</v>
+        <v>74836.288950999995</v>
       </c>
       <c r="BJ14" s="1">
         <v>20.787858</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.507000</v>
+        <v>-361.50700000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>74847.768854</v>
+        <v>74847.768853999994</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.791047</v>
+        <v>20.791046999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.020000</v>
+        <v>1264.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-569.134000</v>
+        <v>-569.13400000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>74858.687816</v>
+        <v>74858.687816000005</v>
       </c>
       <c r="BT14" s="1">
-        <v>20.794080</v>
+        <v>20.794080000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.090000</v>
+        <v>1411.09</v>
       </c>
       <c r="BV14" s="1">
-        <v>-789.876000</v>
+        <v>-789.87599999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>74870.241592</v>
+        <v>74870.241592000006</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.797289</v>
+        <v>20.797288999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.290000</v>
+        <v>1571.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1020.240000</v>
+        <v>-1020.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>74882.585033</v>
+        <v>74882.585032999996</v>
       </c>
       <c r="CD14" s="1">
         <v>20.800718</v>
       </c>
       <c r="CE14" s="1">
-        <v>1974.560000</v>
+        <v>1974.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1558.550000</v>
+        <v>-1558.55</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>74708.496207</v>
+        <v>74708.496207000004</v>
       </c>
       <c r="B15" s="1">
-        <v>20.752360</v>
+        <v>20.752359999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>903.514000</v>
+        <v>903.51400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-190.925000</v>
+        <v>-190.92500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>74718.969766</v>
+        <v>74718.969765999995</v>
       </c>
       <c r="G15" s="1">
-        <v>20.755269</v>
+        <v>20.755268999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>919.960000</v>
+        <v>919.96</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.953000</v>
+        <v>-162.953</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>74729.468050</v>
+        <v>74729.468049999996</v>
       </c>
       <c r="L15" s="1">
-        <v>20.758186</v>
+        <v>20.758185999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>942.940000</v>
+        <v>942.94</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.285000</v>
+        <v>-118.285</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>74739.987205</v>
+        <v>74739.987204999998</v>
       </c>
       <c r="Q15" s="1">
         <v>20.761108</v>
       </c>
       <c r="R15" s="1">
-        <v>949.929000</v>
+        <v>949.92899999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.298000</v>
+        <v>-103.298</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>74750.523719</v>
+        <v>74750.523719000004</v>
       </c>
       <c r="V15" s="1">
-        <v>20.764034</v>
+        <v>20.764033999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>956.815000</v>
+        <v>956.81500000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.004600</v>
+        <v>-90.004599999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>74760.748745</v>
+        <v>74760.748745000004</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.766875</v>
+        <v>20.766874999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.501000</v>
+        <v>964.50099999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.503000</v>
+        <v>-80.503</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>74771.022876</v>
+        <v>74771.022876000003</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.769729</v>
+        <v>20.769729000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.632000</v>
+        <v>969.63199999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.991900</v>
+        <v>-79.991900000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>74781.140303</v>
+        <v>74781.140302999993</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.772539</v>
+        <v>20.772538999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.694000</v>
+        <v>977.69399999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.550500</v>
+        <v>-87.5505</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>74791.571136</v>
+        <v>74791.571135999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.775436</v>
+        <v>20.775435999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.900000</v>
+        <v>986.9</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.284000</v>
+        <v>-102.28400000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>74803.050545</v>
+        <v>74803.050545000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.778625</v>
+        <v>20.778625000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.243000</v>
+        <v>998.24300000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.581000</v>
+        <v>-123.581</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>74814.032499</v>
+        <v>74814.032498999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.781676</v>
+        <v>20.781676000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.205000</v>
+        <v>-142.20500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>74825.050608</v>
+        <v>74825.050608000005</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.784736</v>
+        <v>20.784735999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.548000</v>
+        <v>-226.548</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>74837.039892</v>
+        <v>74837.039892000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.788067</v>
+        <v>20.788067000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.522000</v>
+        <v>-361.52199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>74848.185494</v>
+        <v>74848.185494000005</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.791163</v>
+        <v>20.791163000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-569.066000</v>
+        <v>-569.06600000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>74859.106936</v>
+        <v>74859.106935999996</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.794196</v>
+        <v>20.794195999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.140000</v>
+        <v>1411.14</v>
       </c>
       <c r="BV15" s="1">
-        <v>-789.761000</v>
+        <v>-789.76099999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>74870.664184</v>
+        <v>74870.664183999994</v>
       </c>
       <c r="BY15" s="1">
         <v>20.797407</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.240000</v>
+        <v>1571.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1020.230000</v>
+        <v>-1020.23</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>74883.422279</v>
+        <v>74883.422279000006</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.800951</v>
+        <v>20.800951000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1972.880000</v>
+        <v>1972.88</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1557.660000</v>
+        <v>-1557.66</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>74708.862255</v>
       </c>
       <c r="B16" s="1">
-        <v>20.752462</v>
+        <v>20.752462000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>903.540000</v>
+        <v>903.54</v>
       </c>
       <c r="D16" s="1">
-        <v>-191.048000</v>
+        <v>-191.048</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>74719.314944</v>
+        <v>74719.314943999998</v>
       </c>
       <c r="G16" s="1">
-        <v>20.755365</v>
+        <v>20.755365000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>919.901000</v>
+        <v>919.90099999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.138000</v>
+        <v>-163.13800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>74729.811810</v>
+        <v>74729.811809999999</v>
       </c>
       <c r="L16" s="1">
         <v>20.758281</v>
       </c>
       <c r="M16" s="1">
-        <v>942.993000</v>
+        <v>942.99300000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.190000</v>
+        <v>-118.19</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>74740.336389</v>
+        <v>74740.336389000004</v>
       </c>
       <c r="Q16" s="1">
         <v>20.761205</v>
       </c>
       <c r="R16" s="1">
-        <v>949.931000</v>
+        <v>949.93100000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.338000</v>
+        <v>-103.33799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>74750.954278</v>
+        <v>74750.954278000005</v>
       </c>
       <c r="V16" s="1">
-        <v>20.764154</v>
+        <v>20.764154000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>956.832000</v>
+        <v>956.83199999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.957000</v>
+        <v>-89.956999999999994</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>74761.176792</v>
+        <v>74761.176791999998</v>
       </c>
       <c r="AA16" s="1">
         <v>20.766994</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.420000</v>
+        <v>964.42</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.530600</v>
+        <v>-80.530600000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>74771.298188</v>
+        <v>74771.298188000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.769805</v>
+        <v>20.769805000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.632000</v>
+        <v>969.63199999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.026600</v>
+        <v>-80.026600000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>74781.490446</v>
+        <v>74781.490445999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.772636</v>
+        <v>20.772635999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.688000</v>
+        <v>977.68799999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.581700</v>
+        <v>-87.581699999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>74791.930738</v>
+        <v>74791.930737999995</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.775536</v>
+        <v>20.775535999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.915000</v>
+        <v>986.91499999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>74803.413619</v>
+        <v>74803.413618999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.778726</v>
+        <v>20.778725999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.250000</v>
+        <v>998.25</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.586000</v>
+        <v>-123.586</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>74814.756131</v>
+        <v>74814.756131000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>20.781877</v>
+        <v>20.781877000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.860000</v>
+        <v>1007.86</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.207000</v>
+        <v>-142.20699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>74825.773763</v>
+        <v>74825.773763000005</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.784937</v>
+        <v>20.784936999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.541000</v>
+        <v>-226.541</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>74837.417844</v>
+        <v>74837.417843999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.788172</v>
+        <v>20.788171999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.494000</v>
+        <v>-361.49400000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>74848.582293</v>
+        <v>74848.582292999999</v>
       </c>
       <c r="BO16" s="1">
         <v>20.791273</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-569.101000</v>
+        <v>-569.101</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>74859.534951</v>
+        <v>74859.534950999994</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.794315</v>
+        <v>20.794315000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1410.990000</v>
+        <v>1410.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-789.828000</v>
+        <v>-789.82799999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>74871.425570</v>
+        <v>74871.425570000007</v>
       </c>
       <c r="BY16" s="1">
         <v>20.797618</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.170000</v>
+        <v>1571.17</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1020.380000</v>
+        <v>-1020.38</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>74883.623892</v>
+        <v>74883.623892000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.801007</v>
+        <v>20.801006999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1972.450000</v>
+        <v>1972.45</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1559.260000</v>
+        <v>-1559.26</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>74709.204989</v>
+        <v>74709.204989000005</v>
       </c>
       <c r="B17" s="1">
-        <v>20.752557</v>
+        <v>20.752556999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>903.648000</v>
+        <v>903.64800000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-190.900000</v>
+        <v>-190.9</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>74719.660655</v>
@@ -4351,542 +4767,542 @@
         <v>20.755461</v>
       </c>
       <c r="H17" s="1">
-        <v>920.254000</v>
+        <v>920.25400000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.813000</v>
+        <v>-162.81299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>74730.253218</v>
+        <v>74730.253217999998</v>
       </c>
       <c r="L17" s="1">
-        <v>20.758404</v>
+        <v>20.758403999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.889000</v>
+        <v>942.88900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.164000</v>
+        <v>-118.164</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>74740.764932</v>
+        <v>74740.764932000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.761324</v>
+        <v>20.761323999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>949.913000</v>
+        <v>949.91300000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.420000</v>
+        <v>-103.42</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>74751.223577</v>
+        <v>74751.223576999997</v>
       </c>
       <c r="V17" s="1">
         <v>20.764229</v>
       </c>
       <c r="W17" s="1">
-        <v>956.847000</v>
+        <v>956.84699999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.013300</v>
+        <v>-90.013300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>74761.458520</v>
+        <v>74761.45852</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.767072</v>
+        <v>20.767071999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.512000</v>
+        <v>964.51199999999994</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.569800</v>
+        <v>-80.569800000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>74771.640891</v>
+        <v>74771.640891000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.769900</v>
+        <v>20.7699</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.648000</v>
+        <v>969.64800000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.038700</v>
+        <v>-80.038700000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>74781.836685</v>
+        <v>74781.836685000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.772732</v>
+        <v>20.772732000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.712000</v>
+        <v>977.71199999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.545300</v>
+        <v>-87.545299999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>74792.295792</v>
+        <v>74792.295792000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.775638</v>
+        <v>20.775638000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.912000</v>
+        <v>986.91200000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.258000</v>
+        <v>-102.258</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>74804.143728</v>
+        <v>74804.143727999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.778929</v>
+        <v>20.778929000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.243000</v>
+        <v>998.24300000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.609000</v>
+        <v>-123.60899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>74815.133585</v>
+        <v>74815.133585000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.781982</v>
+        <v>20.781981999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.211000</v>
+        <v>-142.21100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>74826.162034</v>
+        <v>74826.162033999994</v>
       </c>
       <c r="BE17" s="1">
         <v>20.785045</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.550000</v>
+        <v>-226.55</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>74837.789843</v>
+        <v>74837.789843000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.788275</v>
+        <v>20.788274999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.620000</v>
+        <v>1132.6199999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.498000</v>
+        <v>-361.49799999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>74849.326855</v>
+        <v>74849.326855000007</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.791480</v>
+        <v>20.79148</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.020000</v>
+        <v>1264.02</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-569.082000</v>
+        <v>-569.08199999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>74860.265062</v>
+        <v>74860.265062000006</v>
       </c>
       <c r="BT17" s="1">
         <v>20.794518</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.060000</v>
+        <v>1411.06</v>
       </c>
       <c r="BV17" s="1">
-        <v>-789.755000</v>
+        <v>-789.755</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>74871.543095</v>
+        <v>74871.543095000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.797651</v>
+        <v>20.797650999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.110000</v>
+        <v>1571.11</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1020.400000</v>
+        <v>-1020.4</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>74884.141478</v>
+        <v>74884.141478000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.801150</v>
+        <v>20.80115</v>
       </c>
       <c r="CE17" s="1">
-        <v>1972.450000</v>
+        <v>1972.45</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1559.070000</v>
+        <v>-1559.07</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>74709.544749</v>
+        <v>74709.544748999993</v>
       </c>
       <c r="B18" s="1">
         <v>20.752651</v>
       </c>
       <c r="C18" s="1">
-        <v>903.532000</v>
+        <v>903.53200000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-190.940000</v>
+        <v>-190.94</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>74720.085727</v>
+        <v>74720.085726999998</v>
       </c>
       <c r="G18" s="1">
-        <v>20.755579</v>
+        <v>20.755579000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>920.067000</v>
+        <v>920.06700000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.105000</v>
+        <v>-163.10499999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>74730.503982</v>
+        <v>74730.503981999995</v>
       </c>
       <c r="L18" s="1">
-        <v>20.758473</v>
+        <v>20.758472999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.963000</v>
+        <v>942.96299999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.242000</v>
+        <v>-118.242</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>74741.041699</v>
+        <v>74741.041698999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.761400</v>
+        <v>20.761399999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>949.915000</v>
+        <v>949.91499999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.369000</v>
+        <v>-103.369</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>74751.567798</v>
+        <v>74751.567798000004</v>
       </c>
       <c r="V18" s="1">
-        <v>20.764324</v>
+        <v>20.764323999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>956.853000</v>
+        <v>956.85299999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.873200</v>
+        <v>-89.873199999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>74761.803249</v>
+        <v>74761.803249000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.767168</v>
+        <v>20.767168000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.412000</v>
+        <v>964.41200000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.495400</v>
+        <v>-80.495400000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>74771.983137</v>
+        <v>74771.983137000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.769995</v>
+        <v>20.769995000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.640000</v>
+        <v>969.64</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.007500</v>
+        <v>-80.007499999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74782.536045</v>
+        <v>74782.536045000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.772927</v>
+        <v>20.772926999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.724000</v>
+        <v>977.72400000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.541300</v>
+        <v>-87.541300000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>74793.021936</v>
+        <v>74793.021936000005</v>
       </c>
       <c r="AP18" s="1">
-        <v>20.775839</v>
+        <v>20.775839000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.878000</v>
+        <v>986.87800000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>74804.535601</v>
+        <v>74804.535600999996</v>
       </c>
       <c r="AU18" s="1">
         <v>20.779038</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.250000</v>
+        <v>998.25</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.583000</v>
+        <v>-123.583</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>74815.511041</v>
+        <v>74815.511041000005</v>
       </c>
       <c r="AZ18" s="1">
         <v>20.782086</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.860000</v>
+        <v>1007.86</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.212000</v>
+        <v>-142.21199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>74826.520274</v>
+        <v>74826.520273999995</v>
       </c>
       <c r="BE18" s="1">
         <v>20.785145</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.539000</v>
+        <v>-226.53899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>74838.485235</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.788468</v>
+        <v>20.788468000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.502000</v>
+        <v>-361.50200000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>74849.823781</v>
+        <v>74849.823780999999</v>
       </c>
       <c r="BO18" s="1">
         <v>20.791618</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.030000</v>
+        <v>1264.03</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-569.114000</v>
+        <v>-569.11400000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>74860.379638</v>
+        <v>74860.379637999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.794550</v>
+        <v>20.794550000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.050000</v>
+        <v>1411.05</v>
       </c>
       <c r="BV18" s="1">
-        <v>-789.774000</v>
+        <v>-789.774</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>74871.976598</v>
+        <v>74871.976597999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.797771</v>
+        <v>20.797771000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.240000</v>
+        <v>1571.24</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1020.360000</v>
+        <v>-1020.36</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>74884.692533</v>
+        <v>74884.692532999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.801303</v>
+        <v>20.801303000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1972.710000</v>
+        <v>1972.71</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1558.160000</v>
+        <v>-1558.16</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>74709.967340</v>
+        <v>74709.967340000003</v>
       </c>
       <c r="B19" s="1">
-        <v>20.752769</v>
+        <v>20.752769000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>903.518000</v>
+        <v>903.51800000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-190.910000</v>
+        <v>-190.91</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>74720.358526</v>
+        <v>74720.358525999996</v>
       </c>
       <c r="G19" s="1">
-        <v>20.755655</v>
+        <v>20.755655000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.780000</v>
+        <v>919.78</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.998000</v>
+        <v>-162.99799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>74730.851394</v>
+        <v>74730.851393999998</v>
       </c>
       <c r="L19" s="1">
-        <v>20.758570</v>
+        <v>20.758569999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.913000</v>
+        <v>942.91300000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.259000</v>
+        <v>-118.259</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>74741.393891</v>
@@ -4895,1753 +5311,1753 @@
         <v>20.761498</v>
       </c>
       <c r="R19" s="1">
-        <v>949.907000</v>
+        <v>949.90700000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.377000</v>
+        <v>-103.377</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>74751.910065</v>
+        <v>74751.910065000004</v>
       </c>
       <c r="V19" s="1">
         <v>20.764419</v>
       </c>
       <c r="W19" s="1">
-        <v>956.841000</v>
+        <v>956.84100000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.943800</v>
+        <v>-89.943799999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>74762.482759</v>
+        <v>74762.482759000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.767356</v>
+        <v>20.767355999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.448000</v>
+        <v>964.44799999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.490900</v>
+        <v>-80.490899999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>74772.669605</v>
+        <v>74772.669605000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.770186</v>
+        <v>20.770185999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.627000</v>
+        <v>969.62699999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.998800</v>
+        <v>-79.998800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>74782.883219</v>
+        <v>74782.883218999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.773023</v>
+        <v>20.773022999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.715000</v>
+        <v>977.71500000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.546000</v>
+        <v>-87.546000000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>74793.399391</v>
+        <v>74793.399390999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.775944</v>
+        <v>20.775943999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.895000</v>
+        <v>986.89499999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.252000</v>
+        <v>-102.252</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>74804.898639</v>
+        <v>74804.898639000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.779139</v>
+        <v>20.779139000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.235000</v>
+        <v>998.23500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.596000</v>
+        <v>-123.596</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>74816.185601</v>
+        <v>74816.185601000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.782274</v>
+        <v>20.782274000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.215000</v>
+        <v>-142.215</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>74827.201250</v>
+        <v>74827.201249999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.785334</v>
+        <v>20.785333999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.542000</v>
+        <v>-226.542</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>74838.913780</v>
+        <v>74838.913780000003</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.788587</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.500000</v>
+        <v>-361.5</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>74850.242403</v>
+        <v>74850.242402999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.791734</v>
+        <v>20.791734000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.060000</v>
+        <v>1264.06</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-569.076000</v>
+        <v>-569.07600000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>74860.816117</v>
+        <v>74860.816116999995</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.794671</v>
+        <v>20.794671000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.010000</v>
+        <v>1411.01</v>
       </c>
       <c r="BV19" s="1">
-        <v>-789.793000</v>
+        <v>-789.79300000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>74872.399190</v>
+        <v>74872.399189999996</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.797889</v>
+        <v>20.797889000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.370000</v>
+        <v>1571.37</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1020.300000</v>
+        <v>-1020.3</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>74885.219285</v>
+        <v>74885.219284999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.801450</v>
+        <v>20.801449999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1973.130000</v>
+        <v>1973.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1559.770000</v>
+        <v>-1559.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>74710.247612</v>
+        <v>74710.247612000006</v>
       </c>
       <c r="B20" s="1">
-        <v>20.752847</v>
+        <v>20.752846999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>903.621000</v>
+        <v>903.62099999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-190.897000</v>
+        <v>-190.89699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>74720.701790</v>
+        <v>74720.701790000006</v>
       </c>
       <c r="G20" s="1">
-        <v>20.755750</v>
+        <v>20.755749999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>919.943000</v>
+        <v>919.94299999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.140000</v>
+        <v>-163.13999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>74731.194128</v>
+        <v>74731.194128000003</v>
       </c>
       <c r="L20" s="1">
-        <v>20.758665</v>
+        <v>20.758665000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.956000</v>
+        <v>942.95600000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.231000</v>
+        <v>-118.23099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>74741.740102</v>
+        <v>74741.740101999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.761594</v>
+        <v>20.761593999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>949.880000</v>
+        <v>949.88</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.355000</v>
+        <v>-103.355</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>74752.596532</v>
+        <v>74752.596531999996</v>
       </c>
       <c r="V20" s="1">
-        <v>20.764610</v>
+        <v>20.764610000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.739000</v>
+        <v>956.73900000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.020100</v>
+        <v>-90.020099999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>74762.850307</v>
+        <v>74762.850307000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.767458</v>
+        <v>20.767458000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.413000</v>
+        <v>964.41300000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.604100</v>
+        <v>-80.604100000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>74773.012329</v>
+        <v>74773.012329000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.770281</v>
+        <v>20.770281000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.622000</v>
+        <v>969.62199999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.009600</v>
+        <v>-80.009600000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>74783.237852</v>
+        <v>74783.237852000006</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.773122</v>
+        <v>20.773122000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.716000</v>
+        <v>977.71600000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.532400</v>
+        <v>-87.532399999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>74793.758493</v>
+        <v>74793.758493000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.776044</v>
+        <v>20.776043999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.914000</v>
+        <v>986.91399999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.282000</v>
+        <v>-102.282</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>74805.587119</v>
+        <v>74805.587119000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.779330</v>
+        <v>20.779330000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.271000</v>
+        <v>998.27099999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.607000</v>
+        <v>-123.607</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>74816.594303</v>
+        <v>74816.594303000005</v>
       </c>
       <c r="AZ20" s="1">
         <v>20.782387</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.206000</v>
+        <v>-142.20599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>74827.633265</v>
+        <v>74827.633264999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.785454</v>
+        <v>20.785454000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.538000</v>
+        <v>-226.53800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>74839.289745</v>
+        <v>74839.289745000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>20.788692</v>
+        <v>20.788692000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.610000</v>
+        <v>1132.6099999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.479000</v>
+        <v>-361.47899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>74850.639203</v>
+        <v>74850.639202999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.791844</v>
+        <v>20.791844000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.020000</v>
+        <v>1264.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-569.099000</v>
+        <v>-569.09900000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>74861.297238</v>
+        <v>74861.297237999999</v>
       </c>
       <c r="BT20" s="1">
         <v>20.794805</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.010000</v>
+        <v>1411.01</v>
       </c>
       <c r="BV20" s="1">
-        <v>-789.771000</v>
+        <v>-789.77099999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>74872.830711</v>
+        <v>74872.830711000002</v>
       </c>
       <c r="BY20" s="1">
         <v>20.798009</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.330000</v>
+        <v>1571.33</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1020.220000</v>
+        <v>-1020.22</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>74885.741112</v>
+        <v>74885.741112000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.801595</v>
+        <v>20.801594999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1974.100000</v>
+        <v>1974.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1558.050000</v>
+        <v>-1558.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>74710.585854</v>
+        <v>74710.585854000004</v>
       </c>
       <c r="B21" s="1">
         <v>20.752941</v>
       </c>
       <c r="C21" s="1">
-        <v>903.524000</v>
+        <v>903.524</v>
       </c>
       <c r="D21" s="1">
-        <v>-190.899000</v>
+        <v>-190.899</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>74721.044990</v>
+        <v>74721.044989999995</v>
       </c>
       <c r="G21" s="1">
-        <v>20.755846</v>
+        <v>20.755845999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>920.329000</v>
+        <v>920.32899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.246000</v>
+        <v>-163.24600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>74731.886544</v>
+        <v>74731.886543999994</v>
       </c>
       <c r="L21" s="1">
-        <v>20.758857</v>
+        <v>20.758856999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>942.966000</v>
+        <v>942.96600000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.264000</v>
+        <v>-118.264</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>74742.438434</v>
+        <v>74742.438433999996</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.761788</v>
+        <v>20.761787999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>949.878000</v>
+        <v>949.87800000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.409000</v>
+        <v>-103.40900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>74752.940723</v>
+        <v>74752.940723000007</v>
       </c>
       <c r="V21" s="1">
         <v>20.764706</v>
       </c>
       <c r="W21" s="1">
-        <v>956.686000</v>
+        <v>956.68600000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.948900</v>
+        <v>-89.948899999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>74763.198486</v>
+        <v>74763.198485999994</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.767555</v>
+        <v>20.767555000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.456000</v>
+        <v>964.45600000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.534500</v>
+        <v>-80.534499999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>74773.358042</v>
+        <v>74773.358042000007</v>
       </c>
       <c r="AF21" s="1">
         <v>20.770377</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.648000</v>
+        <v>969.64800000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.976200</v>
+        <v>-79.976200000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>74783.906954</v>
+        <v>74783.906954000005</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.773307</v>
+        <v>20.773306999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.702000</v>
+        <v>977.702</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.517600</v>
+        <v>-87.517600000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>74794.446445</v>
+        <v>74794.446444999994</v>
       </c>
       <c r="AP21" s="1">
         <v>20.776235</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.897000</v>
+        <v>986.89700000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.247000</v>
+        <v>-102.247</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>74806.028565</v>
+        <v>74806.028565000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.779452</v>
+        <v>20.779451999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.265000</v>
+        <v>998.26499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.595000</v>
+        <v>-123.595</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>74816.970271</v>
+        <v>74816.970270999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.782492</v>
+        <v>20.782492000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.201000</v>
+        <v>-142.20099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>74827.995842</v>
+        <v>74827.995842000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.785554</v>
+        <v>20.785554000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.528000</v>
+        <v>-226.52799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>74839.664226</v>
+        <v>74839.664225999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.788796</v>
+        <v>20.788796000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.510000</v>
+        <v>-361.51</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>74851.071713</v>
+        <v>74851.071712999998</v>
       </c>
       <c r="BO21" s="1">
         <v>20.791964</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-569.104000</v>
+        <v>-569.10400000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>74862.090341</v>
+        <v>74862.090341000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.795025</v>
+        <v>20.795024999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1410.970000</v>
+        <v>1410.97</v>
       </c>
       <c r="BV21" s="1">
-        <v>-789.754000</v>
+        <v>-789.75400000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>74873.249366</v>
+        <v>74873.249366000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.798125</v>
+        <v>20.798124999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.150000</v>
+        <v>1571.15</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1020.260000</v>
+        <v>-1020.26</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>74886.280228</v>
+        <v>74886.280228000003</v>
       </c>
       <c r="CD21" s="1">
         <v>20.801745</v>
       </c>
       <c r="CE21" s="1">
-        <v>1972.380000</v>
+        <v>1972.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1558.540000</v>
+        <v>-1558.54</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>74710.929084</v>
+        <v>74710.929084000003</v>
       </c>
       <c r="B22" s="1">
-        <v>20.753036</v>
+        <v>20.753036000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>903.624000</v>
+        <v>903.62400000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-190.988000</v>
+        <v>-190.988</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>74721.733457</v>
+        <v>74721.733456999995</v>
       </c>
       <c r="G22" s="1">
-        <v>20.756037</v>
+        <v>20.756036999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>920.257000</v>
+        <v>920.25699999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.784000</v>
+        <v>-162.78399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>74732.230798</v>
+        <v>74732.230798000004</v>
       </c>
       <c r="L22" s="1">
-        <v>20.758953</v>
+        <v>20.758953000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>942.985000</v>
+        <v>942.98500000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.210000</v>
+        <v>-118.21</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>74742.785137</v>
+        <v>74742.785136999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.761885</v>
+        <v>20.761884999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>949.922000</v>
+        <v>949.92200000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.400000</v>
+        <v>-103.4</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>74753.282499</v>
+        <v>74753.282498999994</v>
       </c>
       <c r="V22" s="1">
-        <v>20.764801</v>
+        <v>20.764800999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>956.761000</v>
+        <v>956.76099999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.985800</v>
+        <v>-89.985799999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>74763.873541</v>
+        <v>74763.873540999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.767743</v>
+        <v>20.767742999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.434000</v>
+        <v>964.43399999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.556300</v>
+        <v>-80.556299999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>74774.018744</v>
+        <v>74774.018744000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.770561</v>
+        <v>20.770561000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.646000</v>
+        <v>969.64599999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.019100</v>
+        <v>-80.019099999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>74784.283450</v>
+        <v>74784.283450000003</v>
       </c>
       <c r="AK22" s="1">
         <v>20.773412</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.696000</v>
+        <v>977.69600000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.539900</v>
+        <v>-87.539900000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>74794.841262</v>
+        <v>74794.841262000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.776345</v>
+        <v>20.776344999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.899000</v>
+        <v>986.899</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.259000</v>
+        <v>-102.259</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>74806.392127</v>
+        <v>74806.392126999999</v>
       </c>
       <c r="AU22" s="1">
         <v>20.779553</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.250000</v>
+        <v>998.25</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.597000</v>
+        <v>-123.59699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>74817.350206</v>
+        <v>74817.350206000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.782597</v>
+        <v>20.782596999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.840000</v>
+        <v>1007.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.222000</v>
+        <v>-142.22200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>74828.352962</v>
+        <v>74828.352962000004</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.785654</v>
+        <v>20.785654000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.543000</v>
+        <v>-226.54300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>74840.086321</v>
+        <v>74840.086320999995</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.788913</v>
+        <v>20.788913000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.630000</v>
+        <v>1132.6300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.527000</v>
+        <v>-361.52699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>74851.455631</v>
+        <v>74851.455631000004</v>
       </c>
       <c r="BO22" s="1">
         <v>20.792071</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-569.085000</v>
+        <v>-569.08500000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>74862.523384</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.795145</v>
+        <v>20.795145000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.950000</v>
+        <v>1410.95</v>
       </c>
       <c r="BV22" s="1">
-        <v>-789.736000</v>
+        <v>-789.73599999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>74873.665972</v>
+        <v>74873.665972000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.798241</v>
+        <v>20.798241000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.180000</v>
+        <v>1571.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1020.420000</v>
+        <v>-1020.42</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>74886.819379</v>
+        <v>74886.819378999993</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.801894</v>
+        <v>20.801894000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.300000</v>
+        <v>1974.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1559.330000</v>
+        <v>-1559.33</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>74711.613562</v>
+        <v>74711.613561999999</v>
       </c>
       <c r="B23" s="1">
-        <v>20.753226</v>
+        <v>20.753226000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>903.631000</v>
+        <v>903.63099999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-190.886000</v>
+        <v>-190.886</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>74722.080141</v>
+        <v>74722.080140999999</v>
       </c>
       <c r="G23" s="1">
-        <v>20.756133</v>
+        <v>20.756132999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>920.184000</v>
+        <v>920.18399999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.919000</v>
+        <v>-162.91900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>74732.581439</v>
+        <v>74732.581439000001</v>
       </c>
       <c r="L23" s="1">
-        <v>20.759050</v>
+        <v>20.759049999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>943.011000</v>
+        <v>943.01099999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.209000</v>
+        <v>-118.209</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>74743.132833</v>
+        <v>74743.132832999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.761981</v>
+        <v>20.761980999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>949.906000</v>
+        <v>949.90599999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.451000</v>
+        <v>-103.45099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>74753.943635</v>
+        <v>74753.943635000003</v>
       </c>
       <c r="V23" s="1">
-        <v>20.764984</v>
+        <v>20.764983999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>956.773000</v>
+        <v>956.77300000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.921600</v>
+        <v>-89.921599999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>74764.244563</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.767846</v>
+        <v>20.767845999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.504000</v>
+        <v>964.50400000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.536900</v>
+        <v>-80.536900000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>74774.395705</v>
+        <v>74774.395705000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.770665</v>
+        <v>20.770665000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.650000</v>
+        <v>969.65</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.994300</v>
+        <v>-79.994299999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>74784.629162</v>
+        <v>74784.629161999997</v>
       </c>
       <c r="AK23" s="1">
         <v>20.773508</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.532800</v>
+        <v>-87.532799999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>74795.199868</v>
+        <v>74795.199867999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.776444</v>
+        <v>20.776444000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.904000</v>
+        <v>986.904</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>74806.756156</v>
+        <v>74806.756156000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.779654</v>
+        <v>20.779654000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.236000</v>
+        <v>998.23599999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.592000</v>
+        <v>-123.592</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>74817.771342</v>
+        <v>74817.771341999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.782714</v>
+        <v>20.782713999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.210000</v>
+        <v>-142.21</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>74829.084560</v>
+        <v>74829.084560000003</v>
       </c>
       <c r="BE23" s="1">
         <v>20.785857</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.040000</v>
+        <v>1053.04</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.533000</v>
+        <v>-226.53299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>74840.444964</v>
+        <v>74840.444963999995</v>
       </c>
       <c r="BJ23" s="1">
         <v>20.789012</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.504000</v>
+        <v>-361.50400000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>74851.880207</v>
+        <v>74851.880206999995</v>
       </c>
       <c r="BO23" s="1">
         <v>20.792189</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-569.121000</v>
+        <v>-569.12099999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>74862.939032</v>
+        <v>74862.939031999995</v>
       </c>
       <c r="BT23" s="1">
         <v>20.795261</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.950000</v>
+        <v>1410.95</v>
       </c>
       <c r="BV23" s="1">
-        <v>-789.779000</v>
+        <v>-789.779</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>74874.115843</v>
+        <v>74874.115843000007</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.798366</v>
+        <v>20.798366000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.240000</v>
+        <v>1571.24</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1020.360000</v>
+        <v>-1020.36</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>74887.358530</v>
+        <v>74887.358529999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.802044</v>
+        <v>20.802043999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1972.810000</v>
+        <v>1972.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1557.860000</v>
+        <v>-1557.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>74711.959274</v>
+        <v>74711.959273999993</v>
       </c>
       <c r="B24" s="1">
-        <v>20.753322</v>
+        <v>20.753322000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>903.470000</v>
+        <v>903.47</v>
       </c>
       <c r="D24" s="1">
-        <v>-191.029000</v>
+        <v>-191.029</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>74722.425356</v>
+        <v>74722.425356000007</v>
       </c>
       <c r="G24" s="1">
-        <v>20.756229</v>
+        <v>20.756229000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>919.905000</v>
+        <v>919.90499999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.198000</v>
+        <v>-163.19800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>74733.243102</v>
+        <v>74733.243101999993</v>
       </c>
       <c r="L24" s="1">
-        <v>20.759234</v>
+        <v>20.759233999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>942.912000</v>
+        <v>942.91200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.233000</v>
+        <v>-118.233</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>74743.807888</v>
+        <v>74743.807887999996</v>
       </c>
       <c r="Q24" s="1">
         <v>20.762169</v>
       </c>
       <c r="R24" s="1">
-        <v>949.885000</v>
+        <v>949.88499999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>74754.311666</v>
+        <v>74754.311665999994</v>
       </c>
       <c r="V24" s="1">
-        <v>20.765087</v>
+        <v>20.765087000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>956.849000</v>
+        <v>956.84900000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.932700</v>
+        <v>-89.932699999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>74764.592772</v>
+        <v>74764.592772000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.767942</v>
+        <v>20.767942000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.442000</v>
+        <v>964.44200000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.520100</v>
+        <v>-80.520099999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>74774.741879</v>
+        <v>74774.741878999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.770762</v>
+        <v>20.770762000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.635000</v>
+        <v>969.63499999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.983600</v>
+        <v>-79.983599999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>74784.976825</v>
+        <v>74784.976825000005</v>
       </c>
       <c r="AK24" s="1">
         <v>20.773605</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.683000</v>
+        <v>977.68299999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.564600</v>
+        <v>-87.564599999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>74795.862524</v>
+        <v>74795.862523999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.776628</v>
+        <v>20.776627999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.898000</v>
+        <v>986.89800000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.267000</v>
+        <v>-102.267</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>74807.178748</v>
+        <v>74807.178748000006</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.779772</v>
+        <v>20.779772000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.247000</v>
+        <v>998.24699999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.603000</v>
+        <v>-123.60299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>74818.067421</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.782797</v>
+        <v>20.782796999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.202000</v>
+        <v>-142.202</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>74829.460536</v>
+        <v>74829.460535999999</v>
       </c>
       <c r="BE24" s="1">
         <v>20.785961</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.050000</v>
+        <v>1053.05</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.531000</v>
+        <v>-226.53100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>74840.819905</v>
+        <v>74840.819904999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.789117</v>
+        <v>20.789117000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.518000</v>
+        <v>-361.51799999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>74852.274514</v>
+        <v>74852.274514000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.792298</v>
+        <v>20.792297999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.050000</v>
+        <v>1264.05</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-569.106000</v>
+        <v>-569.10599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>74863.362082</v>
+        <v>74863.362082000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.795378</v>
+        <v>20.795377999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.950000</v>
+        <v>1410.95</v>
       </c>
       <c r="BV24" s="1">
-        <v>-789.699000</v>
+        <v>-789.69899999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>74874.532979</v>
+        <v>74874.532978999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.798481</v>
+        <v>20.798480999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.260000</v>
+        <v>1571.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1020.330000</v>
+        <v>-1020.33</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>74887.897681</v>
+        <v>74887.897681000002</v>
       </c>
       <c r="CD24" s="1">
         <v>20.802194</v>
       </c>
       <c r="CE24" s="1">
-        <v>1973.470000</v>
+        <v>1973.47</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1559.800000</v>
+        <v>-1559.8</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>74712.324826</v>
+        <v>74712.324825999996</v>
       </c>
       <c r="B25" s="1">
-        <v>20.753424</v>
+        <v>20.753423999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>903.581000</v>
+        <v>903.58100000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-190.979000</v>
+        <v>-190.97900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>74723.086523</v>
+        <v>74723.086523000005</v>
       </c>
       <c r="G25" s="1">
-        <v>20.756413</v>
+        <v>20.756412999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>920.329000</v>
+        <v>920.32899999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.131000</v>
+        <v>-163.131</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>74733.616590</v>
+        <v>74733.616590000005</v>
       </c>
       <c r="L25" s="1">
         <v>20.759338</v>
       </c>
       <c r="M25" s="1">
-        <v>942.898000</v>
+        <v>942.89800000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.281000</v>
+        <v>-118.28100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>74744.180383</v>
+        <v>74744.180382999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.762272</v>
+        <v>20.762271999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.919000</v>
+        <v>949.91899999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.355000</v>
+        <v>-103.355</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>74754.656882</v>
+        <v>74754.656881999996</v>
       </c>
       <c r="V25" s="1">
-        <v>20.765182</v>
+        <v>20.765181999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>956.940000</v>
+        <v>956.94</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.105900</v>
+        <v>-90.105900000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>74764.942452</v>
+        <v>74764.942452000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.768040</v>
+        <v>20.768039999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.476000</v>
+        <v>964.476</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.456000</v>
+        <v>-80.456000000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>74775.085645</v>
+        <v>74775.085644999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.770857</v>
+        <v>20.770856999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.627000</v>
+        <v>969.62699999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.001400</v>
+        <v>-80.001400000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>74785.407850</v>
+        <v>74785.407850000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.773724</v>
+        <v>20.773724000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.720000</v>
+        <v>977.72</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.547500</v>
+        <v>-87.547499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>74796.303470</v>
+        <v>74796.303469999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.776751</v>
+        <v>20.776751000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.921000</v>
+        <v>986.92100000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.258000</v>
+        <v>-102.258</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>74807.487259</v>
+        <v>74807.487259000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.779858</v>
+        <v>20.779858000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.253000</v>
+        <v>998.25300000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.592000</v>
+        <v>-123.592</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>74818.426527</v>
+        <v>74818.426527000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.782896</v>
+        <v>20.782896000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.196000</v>
+        <v>-142.196</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>74829.821152</v>
+        <v>74829.821152000004</v>
       </c>
       <c r="BE25" s="1">
         <v>20.786061</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.060000</v>
+        <v>1053.06</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.537000</v>
+        <v>-226.53700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>74841.197361</v>
+        <v>74841.197360999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.789221</v>
+        <v>20.789221000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.620000</v>
+        <v>1132.6199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.504000</v>
+        <v>-361.50400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>74852.702065</v>
+        <v>74852.702065000005</v>
       </c>
       <c r="BO25" s="1">
         <v>20.792417</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.030000</v>
+        <v>1264.03</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-569.090000</v>
+        <v>-569.09</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>74863.770322</v>
+        <v>74863.770321999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.795492</v>
+        <v>20.795491999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.840000</v>
+        <v>1410.84</v>
       </c>
       <c r="BV25" s="1">
-        <v>-789.735000</v>
+        <v>-789.73500000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>74874.959074</v>
+        <v>74874.959073999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.798600</v>
+        <v>20.7986</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.220000</v>
+        <v>1571.22</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1020.250000</v>
+        <v>-1020.25</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>74888.438321</v>
+        <v>74888.438320999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.802344</v>
+        <v>20.802344000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1973.810000</v>
+        <v>1973.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1558.010000</v>
+        <v>-1558.01</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>74713.003352</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>20.753612</v>
       </c>
       <c r="C26" s="1">
-        <v>903.679000</v>
+        <v>903.67899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-190.807000</v>
+        <v>-190.80699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>74723.459515</v>
+        <v>74723.459514999995</v>
       </c>
       <c r="G26" s="1">
-        <v>20.756517</v>
+        <v>20.756516999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>919.826000</v>
+        <v>919.82600000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.726000</v>
+        <v>-162.726</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>74733.961309</v>
+        <v>74733.961309000006</v>
       </c>
       <c r="L26" s="1">
-        <v>20.759434</v>
+        <v>20.759433999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.917000</v>
+        <v>942.91700000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.142000</v>
+        <v>-118.142</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>74744.530559</v>
+        <v>74744.530559000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.762370</v>
+        <v>20.762370000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>949.882000</v>
+        <v>949.88199999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.336000</v>
+        <v>-103.336</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>74755.005569</v>
+        <v>74755.005569000001</v>
       </c>
       <c r="V26" s="1">
         <v>20.765279</v>
       </c>
       <c r="W26" s="1">
-        <v>956.827000</v>
+        <v>956.827</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.930200</v>
+        <v>-89.930199999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>74765.375923</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.768160</v>
+        <v>20.768160000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.460000</v>
+        <v>964.46</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.471100</v>
+        <v>-80.471100000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>74775.512662</v>
+        <v>74775.512661999994</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.770976</v>
+        <v>20.770976000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.621000</v>
+        <v>969.62099999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.021000</v>
+        <v>-80.021000000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>74785.676713</v>
+        <v>74785.676712999993</v>
       </c>
       <c r="AK26" s="1">
         <v>20.773799</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.704000</v>
+        <v>977.70399999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.512600</v>
+        <v>-87.512600000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>74796.664067</v>
+        <v>74796.664067000005</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.776851</v>
+        <v>20.776851000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.921000</v>
+        <v>986.92100000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>74807.850860</v>
+        <v>74807.850860000006</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.779959</v>
+        <v>20.779959000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.253000</v>
+        <v>998.25300000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.594000</v>
+        <v>-123.59399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>74818.789102</v>
+        <v>74818.789101999995</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.782997</v>
+        <v>20.782997000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.850000</v>
+        <v>1007.85</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.216000</v>
+        <v>-142.21600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>74830.546766</v>
+        <v>74830.546765999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.786263</v>
+        <v>20.786263000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.060000</v>
+        <v>1053.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.525000</v>
+        <v>-226.52500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>74841.968142</v>
+        <v>74841.968141999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.789436</v>
+        <v>20.789435999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.501000</v>
+        <v>-361.50099999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>74853.094932</v>
+        <v>74853.094932000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.792526</v>
+        <v>20.792525999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.050000</v>
+        <v>1264.05</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-569.096000</v>
+        <v>-569.096</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>74864.186929</v>
+        <v>74864.186929000003</v>
       </c>
       <c r="BT26" s="1">
         <v>20.795607</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.900000</v>
+        <v>1410.9</v>
       </c>
       <c r="BV26" s="1">
-        <v>-789.742000</v>
+        <v>-789.74199999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>74875.409410</v>
+        <v>74875.409409999993</v>
       </c>
       <c r="BY26" s="1">
-        <v>20.798725</v>
+        <v>20.798725000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.140000</v>
+        <v>1571.14</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1020.340000</v>
+        <v>-1020.34</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>74889.304832</v>
+        <v>74889.304831999994</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.802585</v>
+        <v>20.802585000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1973.750000</v>
+        <v>1973.75</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1559.290000</v>
+        <v>-1559.29</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>